--- a/src/Excel/entregable4/CancelacionAnticipadaDPF.xlsx
+++ b/src/Excel/entregable4/CancelacionAnticipadaDPF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C9A01C-EDDE-4721-93B0-E230065148BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CB057A-A429-41FD-BAFC-4A1E3A4CB8DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>usuario</t>
   </si>
@@ -33,9 +33,6 @@
     <t>contraseña</t>
   </si>
   <si>
-    <t>SCISNEROSSPAS</t>
-  </si>
-  <si>
     <t>123456</t>
   </si>
   <si>
@@ -54,13 +51,22 @@
     <t>cuenta</t>
   </si>
   <si>
-    <t>1010816908</t>
-  </si>
-  <si>
     <t>razon</t>
   </si>
   <si>
     <t>Cancelación Anticipada</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>ebenito</t>
+  </si>
+  <si>
+    <t>26 may. 2023, 12:04:53</t>
+  </si>
+  <si>
+    <t>1006745381</t>
   </si>
 </sst>
 </file>
@@ -396,7 +402,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -404,7 +410,7 @@
     <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.08984375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="19.453125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
@@ -417,36 +423,42 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
+      <c r="E2" t="s">
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable4/CancelacionAnticipadaDPF.xlsx
+++ b/src/Excel/entregable4/CancelacionAnticipadaDPF.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CB057A-A429-41FD-BAFC-4A1E3A4CB8DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636FF398-2851-4753-AE06-234030511E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>usuario</t>
   </si>
@@ -60,19 +60,26 @@
     <t>FAILED</t>
   </si>
   <si>
-    <t>ebenito</t>
-  </si>
-  <si>
-    <t>26 may. 2023, 12:04:53</t>
-  </si>
-  <si>
-    <t>1006745381</t>
+    <t>1010816908</t>
+  </si>
+  <si>
+    <t>26 may. 2023, 15:37:23</t>
+  </si>
+  <si>
+    <t>SCISNEROSA1</t>
+  </si>
+  <si>
+    <t>AA23138YD4NP 15:4</t>
+  </si>
+  <si>
+    <t>26 may. 2023, 15:42:13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -402,17 +409,17 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.90625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.08984375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.453125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -440,13 +447,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
@@ -458,7 +465,7 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable4/CancelacionAnticipadaDPF.xlsx
+++ b/src/Excel/entregable4/CancelacionAnticipadaDPF.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>usuario</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>26 may. 2023, 15:42:13</t>
+  </si>
+  <si>
+    <t>AA23138YD4NP 22:4</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>4 ago. 2023, 22:50:22</t>
   </si>
 </sst>
 </file>
@@ -459,13 +468,13 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable4/CancelacionAnticipadaDPF.xlsx
+++ b/src/Excel/entregable4/CancelacionAnticipadaDPF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636FF398-2851-4753-AE06-234030511E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB4ADF2-4744-4A51-9F4F-EAF82E3B505C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>usuario</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>cuenta</t>
   </si>
   <si>
@@ -57,24 +54,9 @@
     <t>Cancelación Anticipada</t>
   </si>
   <si>
-    <t>FAILED</t>
-  </si>
-  <si>
     <t>1010816908</t>
   </si>
   <si>
-    <t>26 may. 2023, 15:37:23</t>
-  </si>
-  <si>
-    <t>SCISNEROSA1</t>
-  </si>
-  <si>
-    <t>AA23138YD4NP 15:4</t>
-  </si>
-  <si>
-    <t>26 may. 2023, 15:42:13</t>
-  </si>
-  <si>
     <t>AA23138YD4NP 22:4</t>
   </si>
   <si>
@@ -82,6 +64,15 @@
   </si>
   <si>
     <t>4 ago. 2023, 22:50:22</t>
+  </si>
+  <si>
+    <t>btorres</t>
+  </si>
+  <si>
+    <t>AA23138YD4NP 09:2</t>
+  </si>
+  <si>
+    <t>9 ago. 2023, 09:28:44</t>
   </si>
 </sst>
 </file>
@@ -418,12 +409,12 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.90625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="7.08984375" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.08984375" collapsed="true"/>
@@ -439,10 +430,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -462,19 +453,19 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable4/CancelacionAnticipadaDPF.xlsx
+++ b/src/Excel/entregable4/CancelacionAnticipadaDPF.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB4ADF2-4744-4A51-9F4F-EAF82E3B505C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2D60B7-F7E5-4A06-A842-A63826A74765}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CancelacionAnticipadaDPF" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>usuario</t>
   </si>
@@ -54,32 +54,16 @@
     <t>Cancelación Anticipada</t>
   </si>
   <si>
-    <t>1010816908</t>
-  </si>
-  <si>
-    <t>AA23138YD4NP 22:4</t>
-  </si>
-  <si>
-    <t>PASSED</t>
-  </si>
-  <si>
-    <t>4 ago. 2023, 22:50:22</t>
-  </si>
-  <si>
     <t>btorres</t>
   </si>
   <si>
-    <t>AA23138YD4NP 09:2</t>
-  </si>
-  <si>
-    <t>9 ago. 2023, 09:28:44</t>
+    <t>1010379117</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -409,17 +393,17 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="7.08984375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.08984375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.453125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
+    <col min="1" max="1" width="7.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -447,25 +431,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable4/CancelacionAnticipadaDPF.xlsx
+++ b/src/Excel/entregable4/CancelacionAnticipadaDPF.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2D60B7-F7E5-4A06-A842-A63826A74765}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A011968-2933-46C5-877D-16E913D7AFEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>usuario</t>
   </si>
@@ -57,13 +57,23 @@
     <t>btorres</t>
   </si>
   <si>
-    <t>1010379117</t>
+    <t>1009923035</t>
+  </si>
+  <si>
+    <t>AA22091MWGJZ 14:2</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>9 ago. 2023, 14:26:31</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -393,17 +403,17 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="7.08984375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.08984375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.453125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -441,6 +451,15 @@
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable4/CancelacionAnticipadaDPF.xlsx
+++ b/src/Excel/entregable4/CancelacionAnticipadaDPF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A011968-2933-46C5-877D-16E913D7AFEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45DAEF3-D0CC-4416-B892-98D43A51147B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>usuario</t>
   </si>
@@ -57,9 +57,6 @@
     <t>btorres</t>
   </si>
   <si>
-    <t>1009923035</t>
-  </si>
-  <si>
     <t>AA22091MWGJZ 14:2</t>
   </si>
   <si>
@@ -67,6 +64,15 @@
   </si>
   <si>
     <t>9 ago. 2023, 14:26:31</t>
+  </si>
+  <si>
+    <t>1010074734</t>
+  </si>
+  <si>
+    <t>AA22118F56W6 09:0</t>
+  </si>
+  <si>
+    <t>11 ago. 2023, 09:04:58</t>
   </si>
 </sst>
 </file>
@@ -403,7 +409,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -447,19 +453,19 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable4/CancelacionAnticipadaDPF.xlsx
+++ b/src/Excel/entregable4/CancelacionAnticipadaDPF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45DAEF3-D0CC-4416-B892-98D43A51147B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77F2E56-3F1F-4E0B-8A22-4531603372F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>usuario</t>
   </si>
@@ -57,22 +57,31 @@
     <t>btorres</t>
   </si>
   <si>
-    <t>AA22091MWGJZ 14:2</t>
-  </si>
-  <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>9 ago. 2023, 14:26:31</t>
-  </si>
-  <si>
-    <t>1010074734</t>
-  </si>
-  <si>
-    <t>AA22118F56W6 09:0</t>
-  </si>
-  <si>
-    <t>11 ago. 2023, 09:04:58</t>
+    <t>AA221900H6ZF 12:0</t>
+  </si>
+  <si>
+    <t>11 ago. 2023, 12:09:13</t>
+  </si>
+  <si>
+    <t>1010831004</t>
+  </si>
+  <si>
+    <t>AA23223FX0CQ 14:1</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>11 ago. 2023, 14:17:59</t>
+  </si>
+  <si>
+    <t>11 ago. 2023, 14:21:18</t>
   </si>
 </sst>
 </file>
@@ -409,7 +418,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -459,13 +468,13 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
